--- a/DesignerConfigs/Datas/item/道具系统表.xlsx
+++ b/DesignerConfigs/Datas/item/道具系统表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\item\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFFC37B-E16C-434F-80A0-2778BB9E86BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A003DFA-6A8F-424F-9061-B3CD93507A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29055" yWindow="195" windowWidth="27645" windowHeight="14835" tabRatio="610" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31920" yWindow="3120" windowWidth="25335" windowHeight="12915" tabRatio="610" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="道具类别备注" sheetId="1" r:id="rId1"/>
@@ -36,11 +36,20 @@
     <definedName name="子类">道具类别备注!$L$2:$L$7,道具类别备注!$M$2:$M$23,道具类别备注!$N$2:$N$3,道具类别备注!$O$2:$O$8,道具类别备注!$P$2:$P$5,道具类别备注!$Q$2:$Q$4,道具类别备注!$R$2:$R$3,道具类别备注!$S$2:$S$3,道具类别备注!$T$2:$U$4,道具类别备注!$V$2:$V$3</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="243">
   <si>
     <t>大类</t>
   </si>
@@ -1179,6 +1188,10 @@
       </rPr>
       <t>ull</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>__tag__</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1537,18 +1550,6 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1557,6 +1558,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1984,10 +1997,10 @@
       </c>
     </row>
     <row r="3" spans="2:24" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B3" s="40">
-        <v>1</v>
-      </c>
-      <c r="C3" s="40" t="s">
+      <c r="B3" s="45">
+        <v>1</v>
+      </c>
+      <c r="C3" s="45" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="10">
@@ -2041,8 +2054,8 @@
       </c>
     </row>
     <row r="4" spans="2:24" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
       <c r="D4" s="10">
         <v>2</v>
       </c>
@@ -2085,8 +2098,8 @@
       </c>
     </row>
     <row r="5" spans="2:24" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
       <c r="D5" s="10">
         <v>3</v>
       </c>
@@ -2117,8 +2130,8 @@
       </c>
     </row>
     <row r="6" spans="2:24" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
       <c r="D6" s="10">
         <v>4</v>
       </c>
@@ -2146,8 +2159,8 @@
       </c>
     </row>
     <row r="7" spans="2:24" ht="33" x14ac:dyDescent="0.2">
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
       <c r="D7" s="10">
         <v>5</v>
       </c>
@@ -2174,10 +2187,10 @@
       </c>
     </row>
     <row r="8" spans="2:24" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="41">
+      <c r="B8" s="43">
         <v>2</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="43" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="10">
@@ -2198,8 +2211,8 @@
       </c>
     </row>
     <row r="9" spans="2:24" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
       <c r="D9" s="10">
         <v>20</v>
       </c>
@@ -2215,8 +2228,8 @@
       </c>
     </row>
     <row r="10" spans="2:24" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
       <c r="D10" s="10">
         <v>30</v>
       </c>
@@ -2232,15 +2245,15 @@
       </c>
     </row>
     <row r="11" spans="2:24" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
       <c r="D11" s="10">
         <v>41</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="44" t="s">
+      <c r="F11" s="40" t="s">
         <v>57</v>
       </c>
       <c r="K11" s="6" t="s">
@@ -2251,15 +2264,15 @@
       </c>
     </row>
     <row r="12" spans="2:24" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="10">
         <v>42</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="45"/>
+      <c r="F12" s="41"/>
       <c r="K12" s="6" t="s">
         <v>15</v>
       </c>
@@ -2268,8 +2281,8 @@
       </c>
     </row>
     <row r="13" spans="2:24" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
       <c r="D13" s="10">
         <v>50</v>
       </c>
@@ -2285,8 +2298,8 @@
       </c>
     </row>
     <row r="14" spans="2:24" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
       <c r="D14" s="10">
         <v>60</v>
       </c>
@@ -2299,15 +2312,15 @@
       </c>
     </row>
     <row r="15" spans="2:24" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
       <c r="D15" s="28">
         <v>71</v>
       </c>
       <c r="E15" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="44" t="s">
+      <c r="F15" s="40" t="s">
         <v>62</v>
       </c>
       <c r="M15" s="28" t="s">
@@ -2315,127 +2328,127 @@
       </c>
     </row>
     <row r="16" spans="2:24" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="28">
         <v>72</v>
       </c>
       <c r="E16" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="46"/>
+      <c r="F16" s="42"/>
       <c r="M16" s="28" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
       <c r="D17" s="28">
         <v>73</v>
       </c>
       <c r="E17" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="46"/>
+      <c r="F17" s="42"/>
       <c r="M17" s="28" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="28">
         <v>74</v>
       </c>
       <c r="E18" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="46"/>
+      <c r="F18" s="42"/>
       <c r="M18" s="28" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
       <c r="D19" s="28">
         <v>75</v>
       </c>
       <c r="E19" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="46"/>
+      <c r="F19" s="42"/>
       <c r="M19" s="29" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
       <c r="D20" s="28">
         <v>76</v>
       </c>
       <c r="E20" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="46"/>
+      <c r="F20" s="42"/>
       <c r="M20" s="29" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
       <c r="D21" s="28">
         <v>77</v>
       </c>
       <c r="E21" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="46"/>
+      <c r="F21" s="42"/>
       <c r="M21" s="29" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="28">
         <v>78</v>
       </c>
       <c r="E22" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="F22" s="46"/>
+      <c r="F22" s="42"/>
       <c r="M22" s="29" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="23" spans="2:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
       <c r="D23" s="28">
         <v>79</v>
       </c>
       <c r="E23" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="F23" s="45"/>
+      <c r="F23" s="41"/>
       <c r="M23" s="29" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
       <c r="D24" s="29">
         <v>81</v>
       </c>
       <c r="E24" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="F24" s="44" t="s">
+      <c r="F24" s="40" t="s">
         <v>72</v>
       </c>
       <c r="M24" s="29" t="s">
@@ -2443,66 +2456,66 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
       <c r="D25" s="29">
         <v>82</v>
       </c>
       <c r="E25" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="46"/>
+      <c r="F25" s="42"/>
       <c r="M25" s="10" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
       <c r="D26" s="29">
         <v>83</v>
       </c>
       <c r="E26" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="F26" s="46"/>
+      <c r="F26" s="42"/>
     </row>
     <row r="27" spans="2:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
       <c r="D27" s="29">
         <v>84</v>
       </c>
       <c r="E27" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F27" s="46"/>
+      <c r="F27" s="42"/>
     </row>
     <row r="28" spans="2:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
       <c r="D28" s="29">
         <v>85</v>
       </c>
       <c r="E28" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="F28" s="46"/>
+      <c r="F28" s="42"/>
     </row>
     <row r="29" spans="2:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
       <c r="D29" s="29">
         <v>86</v>
       </c>
       <c r="E29" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="F29" s="45"/>
+      <c r="F29" s="41"/>
     </row>
     <row r="30" spans="2:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
       <c r="D30" s="10">
         <v>90</v>
       </c>
@@ -2512,8 +2525,8 @@
       <c r="F30" s="23"/>
     </row>
     <row r="31" spans="2:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
       <c r="D31" s="10">
         <v>91</v>
       </c>
@@ -2538,10 +2551,10 @@
       <c r="F32" s="23"/>
     </row>
     <row r="33" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B33" s="41">
+      <c r="B33" s="43">
         <v>4</v>
       </c>
-      <c r="C33" s="41" t="s">
+      <c r="C33" s="43" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="10">
@@ -2550,57 +2563,57 @@
       <c r="E33" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="44" t="s">
+      <c r="F33" s="40" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
       <c r="D34" s="10">
         <v>21</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F34" s="46"/>
+      <c r="F34" s="42"/>
     </row>
     <row r="35" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
       <c r="D35" s="10">
         <v>22</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F35" s="46"/>
+      <c r="F35" s="42"/>
     </row>
     <row r="36" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
       <c r="D36" s="10">
         <v>23</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F36" s="46"/>
+      <c r="F36" s="42"/>
     </row>
     <row r="37" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
       <c r="D37" s="10">
         <v>24</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F37" s="46"/>
+      <c r="F37" s="42"/>
     </row>
     <row r="38" spans="1:16" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
       <c r="D38" s="10">
         <v>3</v>
       </c>
@@ -2613,10 +2626,10 @@
     </row>
     <row r="39" spans="1:16" ht="148.5" x14ac:dyDescent="0.2">
       <c r="A39" s="11"/>
-      <c r="B39" s="40">
+      <c r="B39" s="45">
         <v>5</v>
       </c>
-      <c r="C39" s="40" t="s">
+      <c r="C39" s="45" t="s">
         <v>10</v>
       </c>
       <c r="D39" s="10">
@@ -2630,8 +2643,8 @@
       </c>
     </row>
     <row r="40" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
       <c r="D40" s="10">
         <v>2</v>
       </c>
@@ -2641,8 +2654,8 @@
       <c r="F40" s="23"/>
     </row>
     <row r="41" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
       <c r="D41" s="10">
         <v>3</v>
       </c>
@@ -2652,10 +2665,10 @@
       <c r="F41" s="23"/>
     </row>
     <row r="42" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B42" s="40">
+      <c r="B42" s="45">
         <v>6</v>
       </c>
-      <c r="C42" s="40" t="s">
+      <c r="C42" s="45" t="s">
         <v>11</v>
       </c>
       <c r="D42" s="10">
@@ -2671,8 +2684,8 @@
       <c r="P42" s="12"/>
     </row>
     <row r="43" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B43" s="40"/>
-      <c r="C43" s="40" t="s">
+      <c r="B43" s="45"/>
+      <c r="C43" s="45" t="s">
         <v>79</v>
       </c>
       <c r="D43" s="10">
@@ -2716,10 +2729,10 @@
       <c r="F45" s="23"/>
     </row>
     <row r="46" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B46" s="41">
+      <c r="B46" s="43">
         <v>9</v>
       </c>
-      <c r="C46" s="41" t="s">
+      <c r="C46" s="43" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="10">
@@ -2733,8 +2746,8 @@
       <c r="L46" s="12"/>
     </row>
     <row r="47" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
       <c r="D47" s="10">
         <v>2</v>
       </c>
@@ -2746,10 +2759,10 @@
       <c r="L47" s="12"/>
     </row>
     <row r="48" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B48" s="40">
+      <c r="B48" s="45">
         <v>10</v>
       </c>
-      <c r="C48" s="40" t="s">
+      <c r="C48" s="45" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="10">
@@ -2761,8 +2774,8 @@
       <c r="F48" s="23"/>
     </row>
     <row r="49" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B49" s="40"/>
-      <c r="C49" s="40"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="45"/>
       <c r="D49" s="10">
         <v>2</v>
       </c>
@@ -2797,11 +2810,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F15:F23"/>
-    <mergeCell ref="F24:F29"/>
-    <mergeCell ref="F33:F37"/>
-    <mergeCell ref="B46:B47"/>
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="C3:C7"/>
     <mergeCell ref="C8:C31"/>
@@ -2815,6 +2823,11 @@
     <mergeCell ref="B33:B38"/>
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="B42:B43"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F15:F23"/>
+    <mergeCell ref="F24:F29"/>
+    <mergeCell ref="F33:F37"/>
+    <mergeCell ref="B46:B47"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3054,10 +3067,10 @@
   <dimension ref="A1:AE22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="V10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="V7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomRight" activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3097,7 +3110,9 @@
       <c r="S1" s="47"/>
     </row>
     <row r="2" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>242</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>81</v>
       </c>
@@ -3531,9 +3546,7 @@
       </c>
     </row>
     <row r="7" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>95</v>
-      </c>
+      <c r="A7" s="6"/>
       <c r="B7" s="6">
         <v>3</v>
       </c>
@@ -3616,9 +3629,7 @@
       </c>
     </row>
     <row r="8" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>95</v>
-      </c>
+      <c r="A8" s="6"/>
       <c r="B8" s="6">
         <v>4</v>
       </c>
@@ -3701,9 +3712,7 @@
       </c>
     </row>
     <row r="9" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>95</v>
-      </c>
+      <c r="A9" s="6"/>
       <c r="B9" s="6">
         <v>5</v>
       </c>
@@ -4401,9 +4410,7 @@
       </c>
     </row>
     <row r="19" spans="1:31" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="36" t="s">
-        <v>95</v>
-      </c>
+      <c r="A19" s="36"/>
       <c r="B19" s="36">
         <v>1022490000</v>
       </c>
@@ -4488,9 +4495,7 @@
       </c>
     </row>
     <row r="20" spans="1:31" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="36" t="s">
-        <v>95</v>
-      </c>
+      <c r="A20" s="36"/>
       <c r="B20" s="36">
         <v>1022490001</v>
       </c>

--- a/DesignerConfigs/Datas/item/道具系统表.xlsx
+++ b/DesignerConfigs/Datas/item/道具系统表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\item\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\MyLuban\luban_examples\DesignerConfigs\Datas\item\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADECE6B8-3EAB-415C-9852-DDA3D5C22293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41DD2DD-478A-4A2D-BD98-B12990807D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31530" yWindow="2730" windowWidth="25335" windowHeight="12915" tabRatio="610" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="610" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="道具功能表" sheetId="5" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="179">
   <si>
     <t>功能备注</t>
   </si>
@@ -897,6 +897,14 @@
       </rPr>
       <t>#</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币999</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1137,14 +1145,14 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1481,7 +1489,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="25" t="s">
         <v>176</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -1634,20 +1642,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B5" xr:uid="{00000000-0002-0000-0100-000000000000}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>B4:B5</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1656,10 +1657,10 @@
   <dimension ref="A1:AE21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="V3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="X2" sqref="X2"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1739,10 +1740,10 @@
       <c r="Q1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="R1" s="25" t="s">
+      <c r="R1" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="S1" s="26"/>
+      <c r="S1" s="27"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1" t="s">
         <v>51</v>
@@ -1874,7 +1875,7 @@
       </c>
     </row>
     <row r="3" spans="1:31" s="10" customFormat="1" ht="185.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="25" t="s">
         <v>176</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1964,8 +1965,8 @@
       <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>5</v>
+      <c r="C4" s="20" t="s">
+        <v>178</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>2</v>
@@ -2050,7 +2051,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>8</v>
+        <v>177</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>2</v>
@@ -3340,30 +3341,15 @@
     <mergeCell ref="R1:S1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E18:E21 E4:E15" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>INDIRECT(D4)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D15 D18:D21 H4:H15 H18:H21" xr:uid="{00000000-0002-0000-0200-000001000000}">
+      <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>D4:D15 D18:D21</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>H4:H15 H18:H21</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>